--- a/biology/Botanique/Eucalyptus_populnea/Eucalyptus_populnea.xlsx
+++ b/biology/Botanique/Eucalyptus_populnea/Eucalyptus_populnea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus populnea est un eucalyptus endémique d'Australie. On le trouve dans le centre et les zones côtières du Queensland et dans le nord de Nouvelle-Galles du Sud. Il peut atteindre jusqu'à 25 mètres de hauteur et forme de vastes forêts clairsemées dans les zones arides et semi-arides. L'espèce se caractérise par ses feuilles ovales de 8 cm de long sur 5 de large, d'un vert foncé brillant et son écorce grise fibreuse sur le tronc et les plus grosses branches. Dans le nord de son aire de répartition l'espèce se mélange avec Eucalyptus brownii qui lui ressemble beaucoup mais avec des feuilles plus lancéolées.
 E. populnea s'associe souvent avec d'autres espèces comme l'Acacia aneura et l'Eremophila mitchellii.
